--- a/Awards list.xlsx
+++ b/Awards list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zc/Desktop/SEUPhd Files/找工作材料投递/三星/补充材料_郑冲/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zc/Desktop/SEUPhd Files/找工作材料投递/大疆/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BA2AB-EBEE-B24D-876A-9FBDAE69AD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9632542F-ABD7-A341-8030-B43723BD307B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="500" windowWidth="24940" windowHeight="14280" xr2:uid="{3E723595-ECF3-FC4D-9554-4F48A4D23493}"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="24940" windowHeight="14180" xr2:uid="{3E723595-ECF3-FC4D-9554-4F48A4D23493}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,14 @@
   </si>
   <si>
     <t>重庆大学第二届“国家级大学生创业训练项目”结题证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《通信学报》优秀论文奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,19 +287,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -312,7 +320,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -608,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B883FF-B220-274D-8049-7016F5CDC243}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -625,189 +633,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2014.06</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2014.12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="18">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>2015.1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="18">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>2015.05</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="18">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>2015.06</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="18">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>2015.12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="18">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>2016.02</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>2016.1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="18">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>2016.1</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>2017.06</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="18">
-      <c r="A15" s="2">
+      <c r="A15" s="9">
         <v>2021.09</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="A16" s="2">
+        <v>2023.01</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="18">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
